--- a/medicine/Enfance/Gianpaolo_Pagni/Gianpaolo_Pagni.xlsx
+++ b/medicine/Enfance/Gianpaolo_Pagni/Gianpaolo_Pagni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gianpaolo Pagni, né à Turin en 1969, est un artiste d’origine italienne qui vit à Paris et travaille au Pré Saint-Gervais.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a suivi des cours aux Beaux-Arts d’Orléans[1] et a fait des études de comptabilité en Italie[2].
-Il est illustrateur, auteur, plasticien et collabore avec la presse française et internationale (Le Monde, Libération, Télérama, The Guardian, The Washington Post , etc.)[3],[4][source insuffisante]. 
-Il a notamment imaginé des livres d’artiste et travaille avec beaucoup de maisons d’édition, comme Flammarion, Seuil Jeunesse, Éditions du Rouergue, MeMo, Éditions Cornelius, Corraini, Solo ma non troppo, etc.[5],[3],[6],[7].
-En utilisant le plus souvent des tampons, des aplats de couleur, de la peinture, des empreintes et du découpage, il a développé son langage artistique personnel qui est lié au souvenir, à l’accumulation, à la répétition et au motif[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a suivi des cours aux Beaux-Arts d’Orléans et a fait des études de comptabilité en Italie.
+Il est illustrateur, auteur, plasticien et collabore avec la presse française et internationale (Le Monde, Libération, Télérama, The Guardian, The Washington Post , etc.),[source insuffisante]. 
+Il a notamment imaginé des livres d’artiste et travaille avec beaucoup de maisons d’édition, comme Flammarion, Seuil Jeunesse, Éditions du Rouergue, MeMo, Éditions Cornelius, Corraini, Solo ma non troppo, etc..
+En utilisant le plus souvent des tampons, des aplats de couleur, de la peinture, des empreintes et du découpage, il a développé son langage artistique personnel qui est lié au souvenir, à l’accumulation, à la répétition et au motif.
 </t>
         </is>
       </c>
@@ -547,8 +561,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Livres d'artiste
-Dactylo ou souvenir d'un secrétaire comptable inachevé, Éditions du Rouergue, 2000.
+          <t>Livres d'artiste</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Dactylo ou souvenir d'un secrétaire comptable inachevé, Éditions du Rouergue, 2000.
 Futebol, Éditions du Rouergue, 2002.
 La pasta, Éditions L'Ampoule, 2003.
 Dedans, Éditions Sarbacane, 2010.
@@ -560,20 +579,122 @@
 Some body, Solo ma non troppo, 2014.
 A star in the marble, Lendroit éditions, 2014.
 Pièces Montées, avec Chloé Poizat, Cornelius, 2015.
-Everybody loves somebody... and nobody, Solo ma non troppo, 2015.
-Livres jeunesse
-Tourbillon, Seuil Jeunesse, 2002.
+Everybody loves somebody... and nobody, Solo ma non troppo, 2015.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Gianpaolo_Pagni</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gianpaolo_Pagni</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Livres jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Tourbillon, Seuil Jeunesse, 2002.
 L'explorateur, Seuil Jeunesse, 2005.
 Double face, Corraini, 2009.
-Abc Tam TamÉditions MeMo, livre OVNI Salon de Montreuil, 2012.
-Livres illustrés
-Paroles d'harmonies, Albin Michel jeunesse, 1998.
-Baudelaire[9], Mango éditions, 1998
+Abc Tam TamÉditions MeMo, livre OVNI Salon de Montreuil, 2012.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Gianpaolo_Pagni</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gianpaolo_Pagni</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Livres illustrés</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Paroles d'harmonies, Albin Michel jeunesse, 1998.
+Baudelaire, Mango éditions, 1998
 Bébé Joe, texte de Richard Morgiève, Joëlle Losfeld, 2000.
 Chanter pour la paix, Mango éditions, 2004.
-Paroles de joie, Albin Michel Jeunesse, 2012.
-Livres illustrés collectifs
-La Bible illustrée, Bayard, 2003.
+Paroles de joie, Albin Michel Jeunesse, 2012.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Gianpaolo_Pagni</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gianpaolo_Pagni</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Livres illustrés collectifs</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>La Bible illustrée, Bayard, 2003.
 Paroles d'honnête homme, Albin Michel Jeunesse, 2003.
 Un éléphant peut en cacher un autre, Sarbacane, 2005.
 Dans ma maison, La maison est en carton, 2010.
@@ -581,31 +702,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Gianpaolo_Pagni</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Gianpaolo_Pagni</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Expositions (sélection)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Pièces Montés, avec Chloé Poizat, Point Ephémère, Paris, France, 2016.
 Three days in Paris #3, Galerie Bernard Jordan, Paris, France, 2015.
